--- a/Unterlagen/2_Konzept/Lösungskonzept/Lösungskonzept_G6.xlsx
+++ b/Unterlagen/2_Konzept/Lösungskonzept/Lösungskonzept_G6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franjofranjic/Desktop/Modul_306/Unterlagen/2_Konzept/Lösungskonzept/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{78D8A473-2FE0-A843-8D6D-DFD6E58274AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C07FA7A-899D-4548-BA4A-DA3AA7E84038}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2680" yWindow="1500" windowWidth="28240" windowHeight="17560" xr2:uid="{E7A07862-2E5D-5C44-BF06-88DE79D94D9D}"/>
+    <workbookView xWindow="-20" yWindow="460" windowWidth="33600" windowHeight="19580" xr2:uid="{E7A07862-2E5D-5C44-BF06-88DE79D94D9D}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -30,9 +30,50 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+  <si>
+    <t>Lösungskonzepte</t>
+  </si>
+  <si>
+    <t>Kriterien</t>
+  </si>
+  <si>
+    <t>Lösung A</t>
+  </si>
+  <si>
+    <t>Lösung B</t>
+  </si>
+  <si>
+    <t>Gewichtung (%)</t>
+  </si>
+  <si>
+    <t>Punkte</t>
+  </si>
+  <si>
+    <t>Gesamt</t>
+  </si>
+  <si>
+    <t>Gewichtet</t>
+  </si>
+  <si>
+    <t>Lösung A (Spring/Angular)</t>
+  </si>
+  <si>
+    <t>Lösung B (PHP)</t>
+  </si>
+  <si>
+    <t>Moderne Webapplikationen werden in Sprachen wie Javascript, Java oder auch Python geschrieben. Um die Entwicklung zu vereinfachen haben Java Entwickler ein Backendframework names Spring erstellt. Spring ist ein sehr umfangreiches eigenes "Ecosystem". Ebenfalls haben Entwickler von Google eine mächtiges Frontendframework erstellt names Angular. Diese zwei Frameworks werden bei grossen Webapplikationen häuftig gemeinsam gesehen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHP ist eine weit verbreitet Entwicklungssprache, welche sehr häufig in Webanwendungen verwendet wird. Diese Sprache wurde auch zum Beispiel beim bekannten CMS "Wordpress" verwendet. Damit können sehr einfach starke Webapplikationen erstellt werden. </t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -40,16 +81,48 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="36"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -57,12 +130,189 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -377,12 +627,183 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABD7F85A-8640-7B48-BB04-659505BEE49F}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="38" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="8"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="9"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="11"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="18"/>
+    </row>
+    <row r="4" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="21"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="5"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="14"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="4"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="14"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="2"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="14"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="15"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="14"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="15"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="14"/>
+    </row>
+    <row r="10" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="15"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="14"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="3">
+        <v>100</v>
+      </c>
+      <c r="C11" s="17"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="23"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+    </row>
+    <row r="17" spans="1:6" ht="83" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+    </row>
+    <row r="19" spans="1:6" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Unterlagen/2_Konzept/Lösungskonzept/Lösungskonzept_G6.xlsx
+++ b/Unterlagen/2_Konzept/Lösungskonzept/Lösungskonzept_G6.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franjofranjic/Desktop/Modul_306/Unterlagen/2_Konzept/Lösungskonzept/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C07FA7A-899D-4548-BA4A-DA3AA7E84038}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24AE162C-E9EF-E340-BD24-E8E1E4F03E32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="460" windowWidth="33600" windowHeight="19580" xr2:uid="{E7A07862-2E5D-5C44-BF06-88DE79D94D9D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{E7A07862-2E5D-5C44-BF06-88DE79D94D9D}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>Lösungskonzepte</t>
   </si>
@@ -67,6 +67,18 @@
   </si>
   <si>
     <t xml:space="preserve">PHP ist eine weit verbreitet Entwicklungssprache, welche sehr häufig in Webanwendungen verwendet wird. Diese Sprache wurde auch zum Beispiel beim bekannten CMS "Wordpress" verwendet. Damit können sehr einfach starke Webapplikationen erstellt werden. </t>
+  </si>
+  <si>
+    <t>Einfache DB Einbindung</t>
+  </si>
+  <si>
+    <t>Leicht zu realisierende Anmeldefunktion</t>
+  </si>
+  <si>
+    <t>Kompatibilität mit neuen Technologien/Formaten</t>
+  </si>
+  <si>
+    <t>Schnelle Frontend Entwicklung</t>
   </si>
 </sst>
 </file>
@@ -102,7 +114,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -121,6 +133,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="13">
     <border>
@@ -264,13 +288,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -289,30 +325,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -627,10 +654,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABD7F85A-8640-7B48-BB04-659505BEE49F}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -642,167 +669,213 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="8"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="14"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="9"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="11"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="17"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18" t="s">
+      <c r="D3" s="11"/>
+      <c r="E3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="18"/>
+      <c r="F3" s="11"/>
     </row>
     <row r="4" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="21"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="12" t="s">
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="5"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="14"/>
+      <c r="A5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="22">
+        <v>0.25</v>
+      </c>
+      <c r="C5" s="21">
+        <v>3</v>
+      </c>
+      <c r="D5" s="21">
+        <f>B5*C5</f>
+        <v>0.75</v>
+      </c>
+      <c r="E5" s="21">
+        <v>4</v>
+      </c>
+      <c r="F5" s="23">
+        <f>B5*E5</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="14"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="14"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="15"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="14"/>
+      <c r="A6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="22">
+        <v>0.3</v>
+      </c>
+      <c r="C6" s="21">
+        <v>4</v>
+      </c>
+      <c r="D6" s="21">
+        <f t="shared" ref="D6:D8" si="0">B6*C6</f>
+        <v>1.2</v>
+      </c>
+      <c r="E6" s="21">
+        <v>4</v>
+      </c>
+      <c r="F6" s="23">
+        <f t="shared" ref="F6:F8" si="1">B6*E6</f>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A7" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="C7" s="21">
+        <v>5</v>
+      </c>
+      <c r="D7" s="21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E7" s="21">
+        <v>2</v>
+      </c>
+      <c r="F7" s="23">
+        <f t="shared" si="1"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="22">
+        <v>0.35</v>
+      </c>
+      <c r="C8" s="21">
+        <v>4</v>
+      </c>
+      <c r="D8" s="21">
+        <f t="shared" si="0"/>
+        <v>1.4</v>
+      </c>
+      <c r="E8" s="21">
+        <v>1</v>
+      </c>
+      <c r="F8" s="23">
+        <f t="shared" si="1"/>
+        <v>0.35</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="15"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="14"/>
-    </row>
-    <row r="10" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="14"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="16" t="s">
+      <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="3">
-        <v>100</v>
-      </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="23"/>
+      <c r="B9" s="24">
+        <v>1</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="25">
+        <f>SUM(D5:D8)</f>
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="26">
+        <f>SUM(F5:F8)</f>
+        <v>2.95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+    </row>
+    <row r="15" spans="1:6" ht="83" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-    </row>
-    <row r="17" spans="1:6" ht="83" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="24" t="s">
+      <c r="A16" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-    </row>
-    <row r="19" spans="1:6" ht="53" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="25" t="s">
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+    </row>
+    <row r="17" spans="1:6" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Unterlagen/2_Konzept/Lösungskonzept/Lösungskonzept_G6.xlsx
+++ b/Unterlagen/2_Konzept/Lösungskonzept/Lösungskonzept_G6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franjofranjic/Desktop/Modul_306/Unterlagen/2_Konzept/Lösungskonzept/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24AE162C-E9EF-E340-BD24-E8E1E4F03E32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E56DB58D-F814-004F-A311-C4FFC0564A5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{E7A07862-2E5D-5C44-BF06-88DE79D94D9D}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="29040" windowHeight="15840" xr2:uid="{E7A07862-2E5D-5C44-BF06-88DE79D94D9D}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -262,84 +262,90 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -656,11 +662,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABD7F85A-8640-7B48-BB04-659505BEE49F}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="38" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
@@ -669,117 +675,117 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="14"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="18"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="15"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="17"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="21"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11" t="s">
+      <c r="D3" s="15"/>
+      <c r="E3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="11"/>
+      <c r="F3" s="28"/>
     </row>
     <row r="4" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="5" t="s">
+      <c r="A4" s="25"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="22">
+      <c r="B5" s="9">
         <v>0.25</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5" s="8">
         <v>3</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="8">
         <f>B5*C5</f>
         <v>0.75</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="8">
         <v>4</v>
       </c>
-      <c r="F5" s="23">
+      <c r="F5" s="10">
         <f>B5*E5</f>
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="22">
+      <c r="B6" s="9">
         <v>0.3</v>
       </c>
-      <c r="C6" s="21">
+      <c r="C6" s="8">
         <v>4</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="8">
         <f t="shared" ref="D6:D8" si="0">B6*C6</f>
         <v>1.2</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="8">
         <v>4</v>
       </c>
-      <c r="F6" s="23">
+      <c r="F6" s="10">
         <f t="shared" ref="F6:F8" si="1">B6*E6</f>
         <v>1.2</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="22">
+      <c r="B7" s="9">
         <v>0.2</v>
       </c>
-      <c r="C7" s="21">
+      <c r="C7" s="8">
         <v>5</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="8">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" s="8">
         <v>2</v>
       </c>
-      <c r="F7" s="23">
+      <c r="F7" s="10">
         <f t="shared" si="1"/>
         <v>0.4</v>
       </c>
@@ -788,81 +794,84 @@
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="22">
+      <c r="B8" s="9">
         <v>0.35</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="8">
         <v>4</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="8">
         <f t="shared" si="0"/>
         <v>1.4</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E8" s="8">
         <v>1</v>
       </c>
-      <c r="F8" s="23">
+      <c r="F8" s="10">
         <f t="shared" si="1"/>
         <v>0.35</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="24">
+      <c r="B9" s="27">
         <v>1</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="25">
+      <c r="C9" s="5"/>
+      <c r="D9" s="11">
         <f>SUM(D5:D8)</f>
         <v>4.3499999999999996</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="26">
+      <c r="E9" s="5"/>
+      <c r="F9" s="12">
         <f>SUM(F5:F8)</f>
         <v>2.95</v>
       </c>
     </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B10" s="8"/>
+    </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
     </row>
     <row r="15" spans="1:6" ht="83" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
     </row>
     <row r="17" spans="1:6" ht="53" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="10">
